--- a/Luban/ExcelConfig/Datas/pickable.xlsx
+++ b/Luban/ExcelConfig/Datas/pickable.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -49,7 +62,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>pickable.Info</t>
+    <t>pickable.Info#sep=,</t>
   </si>
   <si>
     <t>float</t>
@@ -82,13 +95,13 @@
     <t>col_pik_coin</t>
   </si>
   <si>
-    <t>包裹金币`1</t>
+    <t>包裹金币,1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1033,10 +1046,10 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
@@ -1044,7 +1057,7 @@
     <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="8" max="8" width="10.75" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
     <col min="10" max="10" width="42.375" customWidth="1"/>

--- a/Luban/ExcelConfig/Datas/pickable.xlsx
+++ b/Luban/ExcelConfig/Datas/pickable.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>##var</t>
   </si>
@@ -44,9 +44,6 @@
     <t>model_name</t>
   </si>
   <si>
-    <t>collider_name</t>
-  </si>
-  <si>
     <t>wrappage</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
   </si>
   <si>
     <t>pik_coin</t>
-  </si>
-  <si>
-    <t>col_pik_coin</t>
   </si>
   <si>
     <t>包裹金币,1</t>
@@ -1039,31 +1033,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P22" sqref="P22"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="8.875" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="8" max="8" width="10.75" customWidth="1"/>
-    <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="42.375" customWidth="1"/>
+    <col min="6" max="6" width="22.75" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="42.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1085,85 +1078,76 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:4">
       <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:7">
       <c r="B7">
         <v>10000</v>
       </c>
       <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7">
+      <c r="G7">
         <v>0.5</v>
       </c>
     </row>
